--- a/exp/empathy_intonation_perc/instructions/2afc_instructions_text.xlsx
+++ b/exp/empathy_intonation_perc/instructions/2afc_instructions_text.xlsx
@@ -361,7 +361,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>In the following task you are going to here a series of utterances. 
+          <t>In the following task you are going to hear a series of utterances. 
   You will decide if the utterances sound like questions or not using your keyboard.</t>
         </is>
       </c>
